--- a/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 8,02</t>
+          <t>-7,09; 8,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 7,54</t>
+          <t>-5,95; 9,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 7,41</t>
+          <t>-6,61; 8,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 9,19</t>
+          <t>-6,64; 9,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 9,78</t>
+          <t>-13,16; 11,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 10,08</t>
+          <t>-12,66; 11,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 6,8</t>
+          <t>-13,75; 10,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 6,86</t>
+          <t>-9,39; 12,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 6,97</t>
+          <t>-7,28; 7,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 7,81</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 7,8</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 9,17</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>-0,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>-0,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,01%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 8,98</t>
+          <t>-7,21; 9,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 8,61</t>
+          <t>-6,09; 10,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 8,45</t>
+          <t>-6,69; 9,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 11,2</t>
+          <t>-6,79; 10,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 11,8</t>
+          <t>-13,93; 13,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 12,07</t>
+          <t>-13,24; 13,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 7,94</t>
+          <t>-14,64; 13,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 8,01</t>
+          <t>-9,58; 15,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 8,17</t>
+          <t>-7,62; 8,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-7,25; 8,93</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-7,81; 8,91</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 10,51</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-4,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 3,63</t>
+          <t>-5,83; 2,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,78</t>
+          <t>-5,39; 2,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,97</t>
+          <t>-4,98; 3,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 7,63</t>
+          <t>-9,02; 0,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 7,77</t>
+          <t>-5,29; 6,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 8,27</t>
+          <t>-5,2; 6,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,65</t>
+          <t>-5,03; 6,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,74</t>
+          <t>-11,2; 1,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 5,27</t>
+          <t>-3,67; 3,44</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 3,5</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 3,6</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,34; 0,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>-4,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>-4,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>-0,34%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,02%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,28%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,95</t>
+          <t>-5,89; 2,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,09</t>
+          <t>-5,55; 3,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,32</t>
+          <t>-5,07; 3,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,51</t>
+          <t>-9,24; 0,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 8,85</t>
+          <t>-5,46; 6,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 9,36</t>
+          <t>-5,49; 6,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 5,12</t>
+          <t>-5,33; 7,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,23</t>
+          <t>-12,11; 2,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 5,85</t>
+          <t>-3,86; 3,74</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 3,8</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 3,88</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-8,84; 0,03</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-3,17</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-4,96</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>-3,37</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-4,61</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-3,53</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 6,5</t>
+          <t>-10,91; 9,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 4,93</t>
+          <t>-12,57; 8,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 4,01</t>
+          <t>-13,75; 6,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 2,79</t>
+          <t>-12,76; 6,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 1,12</t>
+          <t>-4,69; 2,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 0,41</t>
+          <t>-7,68; 0,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,6</t>
+          <t>-10,28; -0,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 1,39</t>
+          <t>-8,55; 0,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 0,85</t>
+          <t>-6,08; 4,17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,65; 2,04</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-10,41; 0,51</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; 1,75</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>-0,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,01%</t>
+          <t>-4,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>-3,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>-3,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,17%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>-0,71%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-2,73%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-3,74%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 7,3</t>
+          <t>-11,68; 10,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 5,45</t>
+          <t>-13,52; 9,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 4,48</t>
+          <t>-14,66; 7,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 2,95</t>
+          <t>-13,55; 6,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 1,12</t>
+          <t>-4,78; 2,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 0,38</t>
+          <t>-7,96; 0,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,88</t>
+          <t>-10,49; -0,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 1,48</t>
+          <t>-8,8; 0,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 0,88</t>
+          <t>-6,43; 4,45</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-9,03; 2,15</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-10,92; 0,58</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-9,22; 1,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 3,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 2,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 2,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 2,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 4,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 4,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,75</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,18</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-1,07</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-2,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 4,0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 3,28</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 3,12</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; 1,98</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 2,91</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 2,16</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 1,46</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 0,24</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 2,3</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 1,79</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 0,88</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; -0,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,78%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,15%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-1,72%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-2,91%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-0,15%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,15%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-1,99%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-3,38%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-0,44%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-1,14%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-1,84%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-3,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 4,31</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 3,52</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 3,42</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 2,08</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 3,15</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 2,34</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 1,59</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-7,47; 0,24</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 2,48</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 1,92</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 0,93</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; -0,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
